--- a/data/UG/DS-BDes.xlsx
+++ b/data/UG/DS-BDes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="guidelines" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="245">
   <si>
     <t xml:space="preserve">Please duplicate this document and give it your department's name before sharing it with us. (e.g. "Biomedical Engineering")</t>
   </si>
@@ -239,9 +239,6 @@
   </si>
   <si>
     <t xml:space="preserve">Semiotics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electives</t>
   </si>
   <si>
     <t xml:space="preserve">DS2063</t>
@@ -773,7 +770,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -805,20 +802,6 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -873,7 +856,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -899,14 +882,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -946,7 +921,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A74:AH2713 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2041,10 +2016,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z83"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A74:AH2713 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2134,7 +2109,9 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
+      <c r="A3" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
@@ -2168,7 +2145,9 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
+      <c r="A4" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
@@ -2202,7 +2181,9 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
+      <c r="A5" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
@@ -2236,7 +2217,9 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
+      <c r="A6" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
@@ -2270,7 +2253,9 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
+      <c r="A7" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
@@ -2304,7 +2289,9 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
+      <c r="A8" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
@@ -2338,7 +2325,9 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
+      <c r="A9" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
@@ -2372,7 +2361,9 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
+      <c r="A10" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>39</v>
       </c>
@@ -2406,7 +2397,9 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
+      <c r="A11" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
@@ -2440,7 +2433,9 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6"/>
+      <c r="A12" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
@@ -2474,10 +2469,18 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
+      <c r="A13" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2502,14 +2505,14 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="6" t="n">
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>2</v>
@@ -2538,12 +2541,14 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
+      <c r="A15" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="B15" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>2</v>
@@ -2572,12 +2577,14 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6"/>
+      <c r="A16" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="B16" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>2</v>
@@ -2606,12 +2613,14 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
+      <c r="A17" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="B17" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>2</v>
@@ -2640,12 +2649,14 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
+      <c r="A18" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="B18" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>2</v>
@@ -2674,12 +2685,14 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
+      <c r="A19" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="B19" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>2</v>
@@ -2708,15 +2721,17 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
+      <c r="A20" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="B20" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2742,15 +2757,17 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
+      <c r="A21" s="4" t="n">
+        <v>3</v>
+      </c>
       <c r="B21" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2776,10 +2793,18 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -2804,17 +2829,17 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="A23" s="6" t="n">
         <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -2840,12 +2865,14 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
+      <c r="A24" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B24" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>1</v>
@@ -2874,12 +2901,14 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
+      <c r="A25" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B25" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>1</v>
@@ -2908,15 +2937,17 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
+      <c r="A26" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B26" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -2942,15 +2973,17 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
+      <c r="A27" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B27" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -2976,12 +3009,18 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="5"/>
+      <c r="A28" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -3006,12 +3045,14 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
+      <c r="A29" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B29" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>2</v>
@@ -3040,12 +3081,14 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6"/>
+      <c r="A30" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B30" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>2</v>
@@ -3074,12 +3117,14 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
+      <c r="A31" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B31" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>2</v>
@@ -3108,12 +3153,14 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6"/>
+      <c r="A32" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B32" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>2</v>
@@ -3142,12 +3189,14 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6"/>
+      <c r="A33" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B33" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>2</v>
@@ -3176,15 +3225,17 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6"/>
+      <c r="A34" s="4" t="n">
+        <v>4</v>
+      </c>
       <c r="B34" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3210,15 +3261,17 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
+      <c r="A35" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="B35" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -3244,12 +3297,14 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6"/>
+      <c r="A36" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="B36" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>2</v>
@@ -3278,10 +3333,18 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="5"/>
+      <c r="A37" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -3306,14 +3369,14 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="6" t="n">
         <v>4</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>1</v>
@@ -3342,12 +3405,14 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6"/>
+      <c r="A39" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="B39" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>91</v>
+        <v>97</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>1</v>
@@ -3376,15 +3441,17 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6"/>
+      <c r="A40" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="B40" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -3410,15 +3477,17 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6"/>
+      <c r="A41" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="B41" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -3444,15 +3513,17 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6"/>
+      <c r="A42" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="B42" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -3478,12 +3549,14 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6"/>
+      <c r="A43" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="B43" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>1</v>
@@ -3512,12 +3585,18 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6"/>
-      <c r="B44" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="5"/>
+      <c r="A44" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -3542,15 +3621,17 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6"/>
+      <c r="A45" s="4" t="n">
+        <v>5</v>
+      </c>
       <c r="B45" s="4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -3576,12 +3657,14 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6"/>
+      <c r="A46" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="B46" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>2</v>
@@ -3610,12 +3693,14 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6"/>
+      <c r="A47" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="B47" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>2</v>
@@ -3644,15 +3729,17 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6"/>
+      <c r="A48" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="B48" s="4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -3678,12 +3765,14 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6"/>
+      <c r="A49" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="B49" s="4" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>2</v>
@@ -3712,10 +3801,18 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="5"/>
+      <c r="A50" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -3740,14 +3837,14 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
+      <c r="A51" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>2</v>
@@ -3776,12 +3873,14 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6"/>
+      <c r="A52" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="B52" s="4" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>2</v>
@@ -3810,12 +3909,14 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6"/>
+      <c r="A53" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="B53" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>115</v>
+        <v>125</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>2</v>
@@ -3844,12 +3945,14 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6"/>
+      <c r="A54" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="B54" s="4" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>2</v>
@@ -3878,12 +3981,14 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6"/>
+      <c r="A55" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="B55" s="4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>2</v>
@@ -3912,12 +4017,14 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6"/>
+      <c r="A56" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="B56" s="4" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>2</v>
@@ -3946,12 +4053,14 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6"/>
+      <c r="A57" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="B57" s="4" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>2</v>
@@ -3980,12 +4089,14 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6"/>
+      <c r="A58" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="B58" s="4" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>2</v>
@@ -4014,12 +4125,14 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6"/>
+      <c r="A59" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="B59" s="4" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>2</v>
@@ -4048,10 +4161,18 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="5"/>
+      <c r="A60" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -4076,14 +4197,18 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
+      <c r="A61" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="5"/>
+      <c r="B61" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -4108,12 +4233,14 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6"/>
+      <c r="A62" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="B62" s="4" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>2</v>
@@ -4142,12 +4269,14 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6"/>
+      <c r="A63" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="B63" s="4" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>2</v>
@@ -4176,15 +4305,17 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6"/>
+      <c r="A64" s="4" t="n">
+        <v>7</v>
+      </c>
       <c r="B64" s="4" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D64" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -4210,12 +4341,14 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6"/>
+      <c r="A65" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="B65" s="4" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>2</v>
@@ -4244,15 +4377,17 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6"/>
+      <c r="A66" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="B66" s="4" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D66" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -4278,15 +4413,17 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6"/>
+      <c r="A67" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="B67" s="4" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D67" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -4312,15 +4449,17 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6"/>
+      <c r="A68" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="B68" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D68" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -4346,15 +4485,17 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6"/>
+      <c r="A69" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="B69" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D69" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -4380,15 +4521,17 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6"/>
+      <c r="A70" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="B70" s="4" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="D70" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -4414,15 +4557,17 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6"/>
+      <c r="A71" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="B71" s="4" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D71" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -4448,10 +4593,18 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="5"/>
+      <c r="A72" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" s="5" t="n">
+        <v>15</v>
+      </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -4475,344 +4628,16 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D73" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
-      <c r="W73" s="3"/>
-      <c r="X73" s="3"/>
-      <c r="Y73" s="3"/>
-      <c r="Z73" s="3"/>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6"/>
-      <c r="B74" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
-      <c r="X74" s="3"/>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="3"/>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6"/>
-      <c r="B75" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D75" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6"/>
-      <c r="B76" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D76" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6"/>
-      <c r="B77" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D77" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
-      <c r="X77" s="3"/>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
-    </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="6"/>
-      <c r="B78" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
-      <c r="X78" s="3"/>
-      <c r="Y78" s="3"/>
-      <c r="Z78" s="3"/>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6"/>
-      <c r="B79" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D79" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
-      <c r="W79" s="3"/>
-      <c r="X79" s="3"/>
-      <c r="Y79" s="3"/>
-      <c r="Z79" s="3"/>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="6"/>
-      <c r="B80" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D80" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
-      <c r="W80" s="3"/>
-      <c r="X80" s="3"/>
-      <c r="Y80" s="3"/>
-      <c r="Z80" s="3"/>
-    </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
-      <c r="U81" s="3"/>
-      <c r="V81" s="3"/>
-      <c r="W81" s="3"/>
-      <c r="X81" s="3"/>
-      <c r="Y81" s="3"/>
-      <c r="Z81" s="3"/>
-    </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D82" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-      <c r="V82" s="3"/>
-      <c r="W82" s="3"/>
-      <c r="X82" s="3"/>
-      <c r="Y82" s="3"/>
-      <c r="Z82" s="3"/>
-    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5722,16 +5547,16 @@
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5751,7 +5576,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A74:AH2713 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5761,7 +5586,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>16</v>
@@ -6788,7 +6613,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A74:AH2713 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6797,22 +6622,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7834,7 +7659,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A74:AH2713 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7843,22 +7668,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8880,7 +8705,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A74:AH2713 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8889,22 +8714,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9925,8 +9750,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X2696" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A74" activeCellId="0" sqref="A74:AH2713"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A74" activeCellId="0" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9935,38 +9760,38 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="89.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="3"/>
@@ -10001,13 +9826,13 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="I2" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -10041,7 +9866,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -10077,13 +9902,13 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -10117,13 +9942,13 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -10157,13 +9982,13 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -10197,13 +10022,13 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -10237,13 +10062,13 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -10277,13 +10102,13 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -10317,13 +10142,13 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -10357,13 +10182,13 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -10397,7 +10222,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -10433,7 +10258,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -10469,7 +10294,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -10505,7 +10330,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -10541,7 +10366,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -10577,7 +10402,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -10613,7 +10438,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -10649,7 +10474,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -10685,7 +10510,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -10721,7 +10546,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -10757,7 +10582,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -10793,7 +10618,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -10829,7 +10654,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -10865,7 +10690,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -10890,10 +10715,10 @@
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
       <c r="B26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>2</v>
@@ -10901,7 +10726,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -10926,10 +10751,10 @@
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6"/>
       <c r="B27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>2</v>
@@ -10937,7 +10762,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -10962,10 +10787,10 @@
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
       <c r="B28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>2</v>
@@ -10973,7 +10798,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -10998,10 +10823,10 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
       <c r="B29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>2</v>
@@ -11009,7 +10834,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -11034,10 +10859,10 @@
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
       <c r="B30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>2</v>
@@ -11045,7 +10870,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -11070,10 +10895,10 @@
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>2</v>
@@ -11081,7 +10906,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -11106,10 +10931,10 @@
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>2</v>
@@ -11117,7 +10942,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -11142,10 +10967,10 @@
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>2</v>
@@ -11153,7 +10978,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -11178,10 +11003,10 @@
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>1</v>
@@ -11189,7 +11014,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -11214,10 +11039,10 @@
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>1</v>
@@ -11225,7 +11050,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -11250,10 +11075,10 @@
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>2</v>
@@ -11261,7 +11086,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -11286,10 +11111,10 @@
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>1</v>
@@ -11297,7 +11122,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -11322,10 +11147,10 @@
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>1</v>
@@ -11333,7 +11158,7 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -11358,10 +11183,10 @@
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>1</v>
@@ -11369,7 +11194,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -11394,10 +11219,10 @@
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
       <c r="B40" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>1</v>
@@ -11405,7 +11230,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -11430,10 +11255,10 @@
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="B41" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>2</v>
@@ -11441,7 +11266,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -11466,10 +11291,10 @@
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>2</v>
@@ -11477,7 +11302,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -11502,10 +11327,10 @@
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>2</v>
@@ -11513,7 +11338,7 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -11538,10 +11363,10 @@
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>1</v>
@@ -11549,7 +11374,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -11574,10 +11399,10 @@
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
       <c r="B45" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>2</v>
@@ -11585,7 +11410,7 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -11610,10 +11435,10 @@
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
       <c r="B46" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>2</v>
@@ -11621,7 +11446,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
@@ -11646,10 +11471,10 @@
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
       <c r="B47" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>2</v>
@@ -11657,7 +11482,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -11682,10 +11507,10 @@
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
       <c r="B48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>2</v>
@@ -11693,7 +11518,7 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -11718,10 +11543,10 @@
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
       <c r="B49" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>2</v>
@@ -11729,7 +11554,7 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -11754,10 +11579,10 @@
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
       <c r="B50" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>2</v>
@@ -11765,7 +11590,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
@@ -11790,10 +11615,10 @@
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
       <c r="B51" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>2</v>
@@ -11801,7 +11626,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -11826,10 +11651,10 @@
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
       <c r="B52" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>2</v>
@@ -11837,7 +11662,7 @@
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -11862,10 +11687,10 @@
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6"/>
       <c r="B53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>2</v>
@@ -11873,7 +11698,7 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -11898,10 +11723,10 @@
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6"/>
       <c r="B54" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>2</v>
@@ -11909,7 +11734,7 @@
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
@@ -11934,10 +11759,10 @@
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
       <c r="B55" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>2</v>
@@ -11945,7 +11770,7 @@
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -11970,10 +11795,10 @@
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6"/>
       <c r="B56" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>2</v>
@@ -11981,7 +11806,7 @@
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -12006,10 +11831,10 @@
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6"/>
       <c r="B57" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>2</v>
@@ -12017,7 +11842,7 @@
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -12042,10 +11867,10 @@
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6"/>
       <c r="B58" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>2</v>
@@ -12053,7 +11878,7 @@
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -12078,10 +11903,10 @@
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
       <c r="B59" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>2</v>
@@ -12089,7 +11914,7 @@
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
@@ -12114,10 +11939,10 @@
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
       <c r="B60" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>2</v>
@@ -12125,7 +11950,7 @@
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -12150,10 +11975,10 @@
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
       <c r="B61" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>2</v>
@@ -12161,7 +11986,7 @@
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
@@ -12186,10 +12011,10 @@
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6"/>
       <c r="B62" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>2</v>
@@ -12197,7 +12022,7 @@
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -12222,10 +12047,10 @@
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6"/>
       <c r="B63" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>2</v>
@@ -12233,7 +12058,7 @@
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
@@ -12258,10 +12083,10 @@
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
       <c r="B64" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>2</v>
@@ -12269,7 +12094,7 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
@@ -12294,10 +12119,10 @@
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
       <c r="B65" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>1</v>
@@ -12305,7 +12130,7 @@
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
@@ -12330,10 +12155,10 @@
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
       <c r="B66" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>2</v>
@@ -12341,7 +12166,7 @@
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
@@ -12366,10 +12191,10 @@
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
       <c r="B67" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>1</v>
@@ -12377,7 +12202,7 @@
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
@@ -12402,10 +12227,10 @@
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
       <c r="B68" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>1</v>
@@ -12413,7 +12238,7 @@
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
@@ -12438,10 +12263,10 @@
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
       <c r="B69" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D69" s="5" t="n">
         <v>1</v>
@@ -12449,7 +12274,7 @@
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
@@ -12474,10 +12299,10 @@
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
       <c r="B70" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="D70" s="5" t="n">
         <v>1</v>
@@ -12485,7 +12310,7 @@
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
@@ -12510,10 +12335,10 @@
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6"/>
       <c r="B71" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="D71" s="5" t="n">
         <v>1</v>
@@ -12521,7 +12346,7 @@
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
@@ -12546,10 +12371,10 @@
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6"/>
       <c r="B72" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="D72" s="5" t="n">
         <v>1</v>
@@ -12557,7 +12382,7 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
@@ -12582,10 +12407,10 @@
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6"/>
       <c r="B73" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="D73" s="5" t="n">
         <v>15</v>
@@ -12593,7 +12418,7 @@
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
